--- a/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
+++ b/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>SNDG</t>
   </si>
@@ -127,12 +127,24 @@
   </si>
   <si>
     <t xml:space="preserve"> (DA TESTARE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temporaneo in CT di tewsa0w </t>
+  </si>
+  <si>
+    <t>SNDG TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DA TESTARE) </t>
+  </si>
+  <si>
+    <t>come riga 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,18 +193,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66CC"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,11 +239,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,26 +280,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,13 +333,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>3840480</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -304,7 +349,7 @@
         <xdr:cNvPr id="2" name="CasellaDiTesto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -732,382 +777,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M14"/>
+  <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>7</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="E7" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>25</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>20</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="16">
+      <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="E11" s="16">
+      <c r="F11" s="14">
         <v>16</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16">
+      <c r="L12" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>82354169</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="F13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16">
+      <c r="H13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="14">
         <v>20</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>24854539</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="F14" s="4">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="I14" s="4">
         <v>20</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="4">
-        <v>20</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="L14" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
+++ b/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>SNDG</t>
   </si>
@@ -126,25 +126,16 @@
     <t>ok</t>
   </si>
   <si>
-    <t xml:space="preserve"> (DA TESTARE)</t>
-  </si>
-  <si>
     <t xml:space="preserve">temporaneo in CT di tewsa0w </t>
   </si>
   <si>
     <t>SNDG TEMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DA TESTARE) </t>
-  </si>
-  <si>
-    <t>come riga 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,7 +300,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,14 +333,14 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>3840480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CasellaDiTesto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,32 +768,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N15"/>
+  <dimension ref="A3:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -838,7 +829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
@@ -869,7 +860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
@@ -897,7 +888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
@@ -929,7 +920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
@@ -961,7 +952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -993,7 +984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
@@ -1057,130 +1048,74 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>82354169</v>
+      </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14">
-        <v>16</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="14">
-        <v>16</v>
+      <c r="F11" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14">
+        <v>20</v>
+      </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>24854539</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="4">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
+      <c r="H12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4">
+        <v>20</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>82354169</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14">
-        <v>20</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="14">
-        <v>20</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>24854539</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="4">
-        <v>20</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
+++ b/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="prod-svil" sheetId="1" r:id="rId1"/>
+    <sheet name="syt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>SNDG</t>
   </si>
@@ -130,12 +131,24 @@
   </si>
   <si>
     <t>SNDG TEMP</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>test in syt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,9 +311,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,7 +367,7 @@
         <xdr:cNvPr id="2" name="CasellaDiTesto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -770,28 +797,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
@@ -829,7 +856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
@@ -860,7 +887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
@@ -888,7 +915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
@@ -920,7 +947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
@@ -952,7 +979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -984,7 +1011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
@@ -1048,7 +1075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>82354169</v>
       </c>
@@ -1080,7 +1107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>24854539</v>
       </c>
@@ -1114,7 +1141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
     </row>
   </sheetData>
@@ -1122,4 +1149,320 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="22">
+        <v>49600759</v>
+      </c>
+      <c r="C3" s="17">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17">
+        <v>10</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="17">
+        <v>10</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="22">
+        <v>52831281</v>
+      </c>
+      <c r="C4" s="17">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>7</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="17">
+        <v>7</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
+        <v>47170349</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25">
+        <v>20</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="25">
+        <v>20</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>36060396</v>
+      </c>
+      <c r="C11" s="17">
+        <v>20</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>20</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="17">
+        <v>20</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
+++ b/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prod-svil" sheetId="1" r:id="rId1"/>
     <sheet name="syt" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
   <si>
     <t>SNDG</t>
   </si>
@@ -143,6 +144,21 @@
   </si>
   <si>
     <t>test in syt</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>BR01=0</t>
+  </si>
+  <si>
+    <t>RATG001;RATG003;</t>
   </si>
 </sst>
 </file>
@@ -220,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -254,11 +270,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +378,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +428,7 @@
         <xdr:cNvPr id="2" name="CasellaDiTesto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -798,7 +859,7 @@
   <dimension ref="A3:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B3" sqref="B3:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1465,4 +1526,333 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="22">
+        <v>82354169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="22">
+        <v>56200741</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="22">
+        <v>16071530</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
+        <v>73401940</v>
+      </c>
+      <c r="C7" s="4">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
+        <v>47170349</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="28">
+        <v>11667844</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14">
+        <v>20</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>17794729</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="29">
+        <v>13075387</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
+++ b/earlywarning-pom/Document/test/CORPORATE/test_CORPORATE_ind01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prod-svil" sheetId="1" r:id="rId1"/>
     <sheet name="syt" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="prod" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="45">
   <si>
     <t>SNDG</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>R4</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>BR01=0</t>
@@ -164,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -386,9 +383,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,7 +431,7 @@
         <xdr:cNvPr id="2" name="CasellaDiTesto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F98421-38D8-4FC8-994A-987F745B88FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,24 +865,24 @@
       <selection activeCell="B3" sqref="B3:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
@@ -917,7 +920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
@@ -948,7 +951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
@@ -976,7 +979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>82354169</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>24854539</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
     </row>
   </sheetData>
@@ -1220,26 +1223,26 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B3" s="22">
         <v>49600759</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="22">
         <v>52831281</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
         <v>19</v>
@@ -1355,7 +1358,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -1383,7 +1386,7 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="4">
         <v>25</v>
@@ -1411,7 +1414,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>47170349</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
         <v>19</v>
@@ -1471,7 +1474,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
       <c r="C10" s="25">
         <v>20</v>
@@ -1495,7 +1498,7 @@
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="23">
         <v>36060396</v>
       </c>
@@ -1533,20 +1536,21 @@
   <dimension ref="B3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="33"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,12 +1582,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="22">
         <v>82354169</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
@@ -1599,14 +1603,14 @@
         <v>24</v>
       </c>
       <c r="I4" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="22">
         <v>56200741</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
         <v>16071530</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>73401940</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>47170349</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="28">
         <v>11667844</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="14">
         <v>20</v>
@@ -1792,7 +1796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="23">
         <v>17794729</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="29">
         <v>13075387</v>
       </c>
@@ -1828,25 +1832,25 @@
         <v>19</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>34</v>
